--- a/doc/Bericht/05_Technischer Bericht/06_Entwurf/NutzwertanalyseAuswahlKinectSDK.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/06_Entwurf/NutzwertanalyseAuswahlKinectSDK.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Gewichtung</t>
   </si>
@@ -28,12 +28,6 @@
     <t>Kriterium</t>
   </si>
   <si>
-    <t>1 bis 5</t>
-  </si>
-  <si>
-    <t>Bemerkung: Höhere Gewichtungen / Bewertungen sind besser.</t>
-  </si>
-  <si>
     <t>Rang</t>
   </si>
   <si>
@@ -92,6 +86,9 @@
   </si>
   <si>
     <t>Durch die Nutzwertanalyse geht das "Framework 1: Kinect for Windows SDK" als Sieger hervor.</t>
+  </si>
+  <si>
+    <t>Bemerkung: Die Gewichtungs- / Bewertungsskala geht von 1 (am schlechtesten) bis 5 (am besten).</t>
   </si>
 </sst>
 </file>
@@ -131,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -150,13 +147,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
@@ -164,34 +205,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Ergebnis" xfId="2" builtinId="25"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="1" builtinId="15"/>
+    <cellStyle name="Total" xfId="2" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -204,9 +255,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -244,7 +295,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -316,7 +367,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -490,61 +541,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A18" sqref="A18:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -553,405 +604,387 @@
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16">
+        <v>5</v>
+      </c>
+      <c r="D5" s="17">
+        <f>B5*C5</f>
+        <v>25</v>
+      </c>
+      <c r="E5" s="16">
+        <v>3</v>
+      </c>
+      <c r="F5" s="17">
+        <f>B5*E5</f>
+        <v>15</v>
+      </c>
+      <c r="G5" s="16">
+        <v>3</v>
+      </c>
+      <c r="H5" s="17">
+        <f>B5*G5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16">
+        <v>5</v>
+      </c>
+      <c r="D6" s="17">
+        <f>B6*C6</f>
+        <v>15</v>
+      </c>
+      <c r="E6" s="16">
+        <v>3</v>
+      </c>
+      <c r="F6" s="17">
+        <f>B6*E6</f>
+        <v>9</v>
+      </c>
+      <c r="G6" s="16">
+        <v>3</v>
+      </c>
+      <c r="H6" s="17">
+        <f>B6*G6</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17">
+        <f>B7*C7</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="16">
+        <v>5</v>
+      </c>
+      <c r="F7" s="17">
+        <f>B7*E7</f>
+        <v>5</v>
+      </c>
+      <c r="G7" s="16">
+        <v>5</v>
+      </c>
+      <c r="H7" s="17">
+        <f>B7*G7</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16">
+        <v>5</v>
+      </c>
+      <c r="D8" s="17">
+        <f>B8*C8</f>
+        <v>25</v>
+      </c>
+      <c r="E8" s="16">
+        <v>3</v>
+      </c>
+      <c r="F8" s="17">
+        <f>B8*E8</f>
+        <v>15</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17">
+        <f>B8*G8</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16">
+        <v>5</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" ref="D9:D14" si="0">B9*C9</f>
+        <v>25</v>
+      </c>
+      <c r="E9" s="16">
+        <v>3</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" ref="F9:F14" si="1">B9*E9</f>
+        <v>15</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" ref="H9:H14" si="2">B9*G9</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <f>B6*C6</f>
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <f>B6*E6</f>
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <f>B6*G6</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6">
-        <f>B7*C7</f>
-        <v>15</v>
-      </c>
-      <c r="E7" s="6">
-        <v>3</v>
-      </c>
-      <c r="F7" s="6">
-        <f>B7*E7</f>
-        <v>9</v>
-      </c>
-      <c r="G7" s="6">
-        <v>3</v>
-      </c>
-      <c r="H7" s="6">
-        <f>B7*G7</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <f>B8*C8</f>
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <f>B8*E8</f>
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <f>B8*G8</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6">
-        <f>B9*C9</f>
-        <v>25</v>
-      </c>
-      <c r="E9" s="6">
-        <v>3</v>
-      </c>
-      <c r="F9" s="6">
-        <f>B9*E9</f>
-        <v>15</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <f>B9*G9</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ref="D10:D15" si="0">B10*C10</f>
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ref="F10:F15" si="1">B10*E10</f>
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ref="H10:H15" si="2">B10*G10</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="6">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6">
-        <v>3</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>3</v>
+      </c>
+      <c r="D10" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E11" s="6">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="E10" s="16">
+        <v>5</v>
+      </c>
+      <c r="F10" s="17">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="H10" s="17">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="6">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6">
-        <v>3</v>
-      </c>
-      <c r="D12" s="6">
+    <row r="11" spans="1:8" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" s="16">
+        <v>3</v>
+      </c>
+      <c r="D11" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E12" s="6">
-        <v>5</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="E11" s="16">
+        <v>5</v>
+      </c>
+      <c r="F11" s="17">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="6">
-        <v>5</v>
-      </c>
-      <c r="C13" s="6">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6">
+    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16">
+        <v>5</v>
+      </c>
+      <c r="D12" s="17">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E13" s="6">
-        <v>3</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="E12" s="16">
+        <v>3</v>
+      </c>
+      <c r="F12" s="17">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
+      <c r="E13" s="16">
+        <v>5</v>
+      </c>
+      <c r="F13" s="17">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
+      <c r="G13" s="16">
+        <v>5</v>
+      </c>
+      <c r="H13" s="17">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6">
-        <v>3</v>
-      </c>
-      <c r="C15" s="6">
-        <v>5</v>
-      </c>
-      <c r="D15" s="6">
+    <row r="14" spans="1:8" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16">
+        <v>5</v>
+      </c>
+      <c r="D14" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>7</v>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19">
+        <f>SUM(D5:D14)</f>
+        <v>158</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19">
+        <f>SUM(F5:F14)</f>
+        <v>132</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19">
+        <f>SUM(H5:H14)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
-        <f>SUM(D6:D15)</f>
-        <v>158</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
-        <f>SUM(F6:F15)</f>
-        <v>132</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2">
-        <f>SUM(H6:H15)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
-        <f>IF(D16&gt;=F16,IF(D16&gt;=H16,1,2),IF(D16&gt;=H16,2,3))</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2">
-        <f>IF(F16&gt;=H16,IF(F16&gt;=D16,1,2),IF(F16&gt;=D16,2,3))</f>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19">
+        <f>IF(D15&gt;=F15,IF(D15&gt;=H15,1,2),IF(D15&gt;=H15,2,3))</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19">
+        <f>IF(F15&gt;=H15,IF(F15&gt;=D15,1,2),IF(F15&gt;=D15,2,3))</f>
         <v>2</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2">
-        <f>IF(H16&gt;=D16,IF(H16&gt;=F16,1,2),IF(H16&gt;=F16,2,3))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19">
+        <f>IF(H15&gt;=D15,IF(H15&gt;=F15,1,2),IF(H15&gt;=F15,2,3))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="A19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A18:H18"/>
     <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>

--- a/doc/Bericht/05_Technischer Bericht/06_Entwurf/NutzwertanalyseAuswahlKinectSDK.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/06_Entwurf/NutzwertanalyseAuswahlKinectSDK.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -88,7 +88,7 @@
     <t>Durch die Nutzwertanalyse geht das "Framework 1: Kinect for Windows SDK" als Sieger hervor.</t>
   </si>
   <si>
-    <t>Bemerkung: Die Gewichtungs- / Bewertungsskala geht von 1 (am schlechtesten) bis 5 (am besten).</t>
+    <t>Bemerkung: Die Gewichtungs- / Bewertungsskala geht von wenig (1), mittel (3) bis zu sehr wichtig (5).</t>
   </si>
 </sst>
 </file>
@@ -212,6 +212,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -228,16 +238,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,48 +554,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -604,22 +604,22 @@
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -630,24 +630,24 @@
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5" s="16">
-        <v>5</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="C5" s="10">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11">
         <f>B5*C5</f>
         <v>25</v>
       </c>
-      <c r="E5" s="16">
-        <v>3</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="E5" s="10">
+        <v>3</v>
+      </c>
+      <c r="F5" s="11">
         <f>B5*E5</f>
         <v>15</v>
       </c>
-      <c r="G5" s="16">
-        <v>3</v>
-      </c>
-      <c r="H5" s="17">
+      <c r="G5" s="10">
+        <v>3</v>
+      </c>
+      <c r="H5" s="11">
         <f>B5*G5</f>
         <v>15</v>
       </c>
@@ -659,24 +659,24 @@
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="16">
-        <v>5</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="C6" s="10">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11">
         <f>B6*C6</f>
         <v>15</v>
       </c>
-      <c r="E6" s="16">
-        <v>3</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="E6" s="10">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11">
         <f>B6*E6</f>
         <v>9</v>
       </c>
-      <c r="G6" s="16">
-        <v>3</v>
-      </c>
-      <c r="H6" s="17">
+      <c r="G6" s="10">
+        <v>3</v>
+      </c>
+      <c r="H6" s="11">
         <f>B6*G6</f>
         <v>9</v>
       </c>
@@ -688,24 +688,24 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="16">
-        <v>1</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
         <f>B7*C7</f>
         <v>1</v>
       </c>
-      <c r="E7" s="16">
-        <v>5</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="11">
         <f>B7*E7</f>
         <v>5</v>
       </c>
-      <c r="G7" s="16">
-        <v>5</v>
-      </c>
-      <c r="H7" s="17">
+      <c r="G7" s="10">
+        <v>5</v>
+      </c>
+      <c r="H7" s="11">
         <f>B7*G7</f>
         <v>5</v>
       </c>
@@ -717,24 +717,24 @@
       <c r="B8" s="5">
         <v>5</v>
       </c>
-      <c r="C8" s="16">
-        <v>5</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="C8" s="10">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11">
         <f>B8*C8</f>
         <v>25</v>
       </c>
-      <c r="E8" s="16">
-        <v>3</v>
-      </c>
-      <c r="F8" s="17">
+      <c r="E8" s="10">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11">
         <f>B8*E8</f>
         <v>15</v>
       </c>
-      <c r="G8" s="16">
-        <v>1</v>
-      </c>
-      <c r="H8" s="17">
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
         <f>B8*G8</f>
         <v>5</v>
       </c>
@@ -746,24 +746,24 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="16">
-        <v>5</v>
-      </c>
-      <c r="D9" s="17">
+      <c r="C9" s="10">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11">
         <f t="shared" ref="D9:D14" si="0">B9*C9</f>
         <v>25</v>
       </c>
-      <c r="E9" s="16">
-        <v>3</v>
-      </c>
-      <c r="F9" s="17">
+      <c r="E9" s="10">
+        <v>3</v>
+      </c>
+      <c r="F9" s="11">
         <f t="shared" ref="F9:F14" si="1">B9*E9</f>
         <v>15</v>
       </c>
-      <c r="G9" s="16">
-        <v>1</v>
-      </c>
-      <c r="H9" s="17">
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
         <f t="shared" ref="H9:H14" si="2">B9*G9</f>
         <v>5</v>
       </c>
@@ -775,24 +775,24 @@
       <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="16">
-        <v>3</v>
-      </c>
-      <c r="D10" s="17">
+      <c r="C10" s="10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E10" s="16">
-        <v>5</v>
-      </c>
-      <c r="F10" s="17">
+      <c r="E10" s="10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G10" s="16">
-        <v>1</v>
-      </c>
-      <c r="H10" s="17">
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -804,24 +804,24 @@
       <c r="B11" s="5">
         <v>5</v>
       </c>
-      <c r="C11" s="16">
-        <v>3</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="C11" s="10">
+        <v>3</v>
+      </c>
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E11" s="16">
-        <v>5</v>
-      </c>
-      <c r="F11" s="17">
+      <c r="E11" s="10">
+        <v>5</v>
+      </c>
+      <c r="F11" s="11">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="G11" s="16">
-        <v>1</v>
-      </c>
-      <c r="H11" s="17">
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -833,24 +833,24 @@
       <c r="B12" s="5">
         <v>5</v>
       </c>
-      <c r="C12" s="16">
-        <v>5</v>
-      </c>
-      <c r="D12" s="17">
+      <c r="C12" s="10">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E12" s="16">
-        <v>3</v>
-      </c>
-      <c r="F12" s="17">
+      <c r="E12" s="10">
+        <v>3</v>
+      </c>
+      <c r="F12" s="11">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G12" s="16">
-        <v>1</v>
-      </c>
-      <c r="H12" s="17">
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -862,24 +862,24 @@
       <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" s="16">
-        <v>1</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E13" s="16">
-        <v>5</v>
-      </c>
-      <c r="F13" s="17">
+      <c r="E13" s="10">
+        <v>5</v>
+      </c>
+      <c r="F13" s="11">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G13" s="16">
-        <v>5</v>
-      </c>
-      <c r="H13" s="17">
+      <c r="G13" s="10">
+        <v>5</v>
+      </c>
+      <c r="H13" s="11">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -891,24 +891,24 @@
       <c r="B14" s="5">
         <v>3</v>
       </c>
-      <c r="C14" s="16">
-        <v>5</v>
-      </c>
-      <c r="D14" s="17">
+      <c r="C14" s="10">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="17">
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G14" s="16">
-        <v>1</v>
-      </c>
-      <c r="H14" s="17">
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -918,18 +918,18 @@
         <v>5</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19">
+      <c r="C15" s="12"/>
+      <c r="D15" s="13">
         <f>SUM(D5:D14)</f>
         <v>158</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19">
+      <c r="E15" s="12"/>
+      <c r="F15" s="13">
         <f>SUM(F5:F14)</f>
         <v>132</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19">
+      <c r="G15" s="12"/>
+      <c r="H15" s="13">
         <f>SUM(H5:H14)</f>
         <v>70</v>
       </c>
@@ -939,46 +939,46 @@
         <v>4</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19">
+      <c r="C16" s="12"/>
+      <c r="D16" s="13">
         <f>IF(D15&gt;=F15,IF(D15&gt;=H15,1,2),IF(D15&gt;=H15,2,3))</f>
         <v>1</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19">
+      <c r="E16" s="12"/>
+      <c r="F16" s="13">
         <f>IF(F15&gt;=H15,IF(F15&gt;=D15,1,2),IF(F15&gt;=D15,2,3))</f>
         <v>2</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19">
+      <c r="G16" s="12"/>
+      <c r="H16" s="13">
         <f>IF(H15&gt;=D15,IF(H15&gt;=F15,1,2),IF(H15&gt;=F15,2,3))</f>
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/doc/Bericht/05_Technischer Bericht/06_Entwurf/NutzwertanalyseAuswahlKinectSDK.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/06_Entwurf/NutzwertanalyseAuswahlKinectSDK.xlsx
@@ -88,7 +88,7 @@
     <t>Durch die Nutzwertanalyse geht das "Framework 1: Kinect for Windows SDK" als Sieger hervor.</t>
   </si>
   <si>
-    <t>Bemerkung: Die Gewichtungs- / Bewertungsskala geht von wenig (1), mittel (3) bis zu sehr wichtig (5).</t>
+    <t>Bemerkung: Die Gewichtungs- / Bewertungsskala geht von wenig (1), bedingt (3) bis zu sehr wichtig (5).</t>
   </si>
 </sst>
 </file>

--- a/doc/Bericht/05_Technischer Bericht/06_Entwurf/NutzwertanalyseAuswahlKinectSDK.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/06_Entwurf/NutzwertanalyseAuswahlKinectSDK.xlsx
@@ -43,9 +43,6 @@
     <t>C# / .NET Framework / Visual Studio Integration</t>
   </si>
   <si>
-    <t>Skeleton Tracking Qualität</t>
-  </si>
-  <si>
     <t>Linux / Mac Kompatibilität</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>Bemerkung: Die Gewichtungs- / Bewertungsskala geht von wenig (1), bedingt (3) bis zu sehr wichtig (5).</t>
+  </si>
+  <si>
+    <t>Skeletal Tracking Qualität</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:H18"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +555,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -569,15 +569,15 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="17"/>
     </row>
@@ -585,7 +585,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="18" t="s">
@@ -593,7 +593,7 @@
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="19"/>
     </row>
@@ -625,7 +625,7 @@
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5">
         <v>3</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5">
         <v>5</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5">
         <v>5</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="14" spans="1:8" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="5">
         <v>3</v>
@@ -958,7 +958,7 @@
     <row r="17" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -970,7 +970,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
